--- a/DataToPlot.xlsx
+++ b/DataToPlot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anna/Research/Benchmarking/Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714F5CB8-E655-7F46-AB0D-B9F4033E64D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE293428-7CF2-C643-B998-AA1F3193C4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="500" windowWidth="13700" windowHeight="15780" xr2:uid="{20E89EA2-26B4-0C40-9E26-D4F8685C984E}"/>
+    <workbookView xWindow="14540" yWindow="520" windowWidth="13700" windowHeight="15780" xr2:uid="{20E89EA2-26B4-0C40-9E26-D4F8685C984E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
   <si>
     <t>Categories</t>
   </si>
@@ -235,12 +235,21 @@
   <si>
     <t>Extra Series 03</t>
   </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,6 +280,7 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
@@ -608,7 +618,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$R$14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$R$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4054,7 +4064,7 @@
                   <a14:compatExt spid="_x0000_s1091"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA7B497-9650-D2F7-27A5-5F2F7D45744E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4121,7 +4131,7 @@
                   <a14:compatExt spid="_x0000_s1092"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9635E9F9-CC12-F9BD-8049-6BA0300CDB0B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4188,7 +4198,7 @@
                   <a14:compatExt spid="_x0000_s1093"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2077A782-7AC8-E050-F57F-EBB41E90115C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4234,14 +4244,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
@@ -4250,7 +4265,7 @@
                   <a14:compatExt spid="_x0000_s1094"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B07B341-EE2D-EE4D-ACEA-F96F0959AC1B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4290,20 +4305,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
@@ -4312,7 +4332,7 @@
                   <a14:compatExt spid="_x0000_s1095"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC095C7-CE8A-BF40-9C2B-B3C5B0A934B6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4352,20 +4372,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
@@ -4374,7 +4399,7 @@
                   <a14:compatExt spid="_x0000_s1096"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6236C7BD-BC03-654E-9167-3C2F72F5BF10}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4414,20 +4439,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
@@ -4436,7 +4466,7 @@
                   <a14:compatExt spid="_x0000_s1097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1194CF25-9CEF-4A4A-96CF-2CA37C2D6B3D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4476,20 +4506,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
@@ -4498,7 +4533,7 @@
                   <a14:compatExt spid="_x0000_s1098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D846D69-CF10-4143-AD8F-6BF712E97886}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4538,20 +4573,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
@@ -4560,7 +4600,7 @@
                   <a14:compatExt spid="_x0000_s1099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508976EA-4FD3-214E-B021-916B1B72E405}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4600,20 +4640,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
@@ -4622,7 +4667,7 @@
                   <a14:compatExt spid="_x0000_s1100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8678E59-A74C-FE41-87A1-877CA16A27FB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4662,20 +4707,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
@@ -4684,7 +4734,7 @@
                   <a14:compatExt spid="_x0000_s1101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E070229D-3309-3140-B9A1-F5ADC636DBFC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4724,20 +4774,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
@@ -4746,7 +4801,7 @@
                   <a14:compatExt spid="_x0000_s1102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90DA7504-A3E5-A349-AFA0-CCBF45382E15}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4786,20 +4841,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
@@ -4808,7 +4868,7 @@
                   <a14:compatExt spid="_x0000_s1103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC460E0-F693-EB41-869F-EA706BFA6BBB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4848,20 +4908,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
@@ -4870,7 +4935,7 @@
                   <a14:compatExt spid="_x0000_s1104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479F3D0D-47E6-B146-B9B1-C4EE211D4103}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4910,20 +4975,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1105" name="Check Box 81" hidden="1">
@@ -4932,7 +5002,7 @@
                   <a14:compatExt spid="_x0000_s1105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01BB6B6B-6F8F-E741-B199-983E702EA535}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4972,20 +5042,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1106" name="Check Box 82" hidden="1">
@@ -4994,7 +5069,7 @@
                   <a14:compatExt spid="_x0000_s1106"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4436BD3F-CD18-1344-96A6-D34F6710D161}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5034,20 +5109,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
@@ -5056,7 +5136,7 @@
                   <a14:compatExt spid="_x0000_s1107"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{755321C8-BA42-D043-B7E9-8C18C3126920}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5096,20 +5176,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1108" name="Check Box 84" hidden="1">
@@ -5118,7 +5203,7 @@
                   <a14:compatExt spid="_x0000_s1108"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C00E30C-AF0D-B449-B328-56C1A1D63F44}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5158,20 +5243,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1109" name="Check Box 85" hidden="1">
@@ -5180,7 +5270,7 @@
                   <a14:compatExt spid="_x0000_s1109"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1454763-4C8D-8341-AEC7-B4FFCAB6DA88}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5220,20 +5310,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1110" name="Check Box 86" hidden="1">
@@ -5242,7 +5337,7 @@
                   <a14:compatExt spid="_x0000_s1110"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF9AC310-972B-D646-ACC9-0507F8FEA404}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5282,20 +5377,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1111" name="Check Box 87" hidden="1">
@@ -5304,7 +5404,7 @@
                   <a14:compatExt spid="_x0000_s1111"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F280D5-FC46-6448-A28C-41341FF42212}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5344,20 +5444,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1112" name="Check Box 88" hidden="1">
@@ -5366,7 +5471,7 @@
                   <a14:compatExt spid="_x0000_s1112"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1A47FAF-088E-0B4E-BC27-16E50EBB4EEF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5406,20 +5511,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1113" name="Check Box 89" hidden="1">
@@ -5428,7 +5538,7 @@
                   <a14:compatExt spid="_x0000_s1113"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0577A34D-49C4-F345-A405-3348C3DDD048}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5468,20 +5578,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="647700" cy="254000"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1114" name="Check Box 90" hidden="1">
@@ -5490,7 +5605,7 @@
                   <a14:compatExt spid="_x0000_s1114"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA6CF9A-7197-244B-88A9-F1456617B1AD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5530,7 +5645,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -5557,7 +5672,7 @@
                   <a14:compatExt spid="_x0000_s1115"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA02687A-A5D7-FD69-6695-8903993EC39C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5624,7 +5739,7 @@
                   <a14:compatExt spid="_x0000_s1117"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE2CC965-651D-26E1-A241-85DA3E8D8B44}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5691,7 +5806,7 @@
                   <a14:compatExt spid="_x0000_s1118"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940A4DA3-C160-BBF1-EDDA-E9473F775F8E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5758,7 +5873,7 @@
                   <a14:compatExt spid="_x0000_s1119"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB3CAA2C-368E-4D04-6775-7F47768A6546}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5825,7 +5940,7 @@
                   <a14:compatExt spid="_x0000_s1120"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37297AA5-808A-3FF5-4F14-99AE707929E1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5892,7 +6007,7 @@
                   <a14:compatExt spid="_x0000_s1121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC800F86-79BD-7C16-67C4-1D1CBB145EF5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5996,7 +6111,7 @@
                   <a14:compatExt spid="_x0000_s1122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776001D8-1ED3-FF46-5FC1-F05C86A05995}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6063,7 +6178,7 @@
                   <a14:compatExt spid="_x0000_s1123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C46FD0-B118-4670-2795-49EB1B554B05}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6427,13 +6542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD11D80-1C49-E146-AE63-1D87441A9B1E}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.6640625" customWidth="1"/>
     <col min="2" max="11" width="15" customWidth="1"/>
@@ -6443,7 +6558,7 @@
     <col min="15" max="18" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6504,8 +6619,11 @@
       <c r="T1" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="U1" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -6550,8 +6668,11 @@
       <c r="T2" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="U2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -6592,8 +6713,11 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
+      <c r="U3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -6634,8 +6758,11 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
+      <c r="U4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -6676,8 +6803,11 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
+      <c r="U5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -6718,8 +6848,11 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
+      <c r="U6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -6760,8 +6893,11 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
+      <c r="U7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6794,8 +6930,11 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
+      <c r="U8" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -6836,8 +6975,11 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
+      <c r="U9" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -6878,8 +7020,11 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
+      <c r="U10" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -6920,8 +7065,11 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
+      <c r="U11" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -6962,8 +7110,11 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
+      <c r="U12" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -7004,28 +7155,31 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
+      <c r="U13" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="D14" s="1">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="F14" s="1">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1">
-        <v>10</v>
+        <v>180</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -7052,29 +7206,32 @@
         <v>0</v>
       </c>
       <c r="R14" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
+      <c r="U14" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1">
-        <v>1.2</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1">
-        <v>0.7</v>
+        <v>40</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
@@ -7108,25 +7265,28 @@
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
+      <c r="U15" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="1">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1">
-        <v>375</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>12</v>
@@ -7160,19 +7320,22 @@
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
+      <c r="U16" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="D17" s="1">
-        <v>100</v>
+        <v>8000</v>
       </c>
       <c r="E17" s="1">
         <v>30</v>
@@ -7212,8 +7375,11 @@
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
+      <c r="U17" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -7264,8 +7430,11 @@
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
+      <c r="U18" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
@@ -7316,8 +7485,11 @@
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
+      <c r="U19" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>41</v>
       </c>
@@ -7368,6 +7540,9 @@
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
+      <c r="U20" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
